--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N2">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O2">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P2">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q2">
-        <v>0.003510787658666667</v>
+        <v>0.09452193958122224</v>
       </c>
       <c r="R2">
-        <v>0.031597088928</v>
+        <v>0.8506974562310001</v>
       </c>
       <c r="S2">
-        <v>1.300751042873921E-05</v>
+        <v>0.0003808719411469607</v>
       </c>
       <c r="T2">
-        <v>1.300751042873921E-05</v>
+        <v>0.0003808719411469608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H3">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N3">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O3">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P3">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q3">
-        <v>5.094947260728</v>
+        <v>9.020630474897555</v>
       </c>
       <c r="R3">
-        <v>45.85452534655201</v>
+        <v>81.185674274078</v>
       </c>
       <c r="S3">
-        <v>0.0188768407750883</v>
+        <v>0.03634822830091608</v>
       </c>
       <c r="T3">
-        <v>0.0188768407750883</v>
+        <v>0.03634822830091609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H4">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N4">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O4">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P4">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q4">
-        <v>0.04174915658133335</v>
+        <v>0.1317293923054444</v>
       </c>
       <c r="R4">
-        <v>0.3757424092320001</v>
+        <v>1.185564530749</v>
       </c>
       <c r="S4">
-        <v>0.0001546811264082548</v>
+        <v>0.0005307977129518334</v>
       </c>
       <c r="T4">
-        <v>0.0001546811264082548</v>
+        <v>0.0005307977129518335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H5">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N5">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O5">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P5">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q5">
-        <v>2.034388628394667</v>
+        <v>3.590851695213667</v>
       </c>
       <c r="R5">
-        <v>18.309497655552</v>
+        <v>32.317665256923</v>
       </c>
       <c r="S5">
-        <v>0.007537434294730886</v>
+        <v>0.01446917680261591</v>
       </c>
       <c r="T5">
-        <v>0.007537434294730886</v>
+        <v>0.01446917680261592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H6">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N6">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O6">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P6">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q6">
-        <v>8.526511585168</v>
+        <v>12.23847480761489</v>
       </c>
       <c r="R6">
-        <v>76.73860426651203</v>
+        <v>110.146273268534</v>
       </c>
       <c r="S6">
-        <v>0.03159082779929777</v>
+        <v>0.04931438856741862</v>
       </c>
       <c r="T6">
-        <v>0.03159082779929777</v>
+        <v>0.04931438856741863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.345897</v>
       </c>
       <c r="I7">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J7">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N7">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O7">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P7">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q7">
-        <v>0.0007869541079999999</v>
+        <v>0.012411207123</v>
       </c>
       <c r="R7">
-        <v>0.007082586972</v>
+        <v>0.111700864107</v>
       </c>
       <c r="S7">
-        <v>2.915674418952677E-06</v>
+        <v>5.001040573074613E-05</v>
       </c>
       <c r="T7">
-        <v>2.915674418952677E-06</v>
+        <v>5.001040573074614E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N8">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O8">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P8">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q8">
-        <v>1.142048470797</v>
+        <v>1.184454251574</v>
       </c>
       <c r="R8">
-        <v>10.278436237173</v>
+        <v>10.660088264166</v>
       </c>
       <c r="S8">
-        <v>0.004231303296668014</v>
+        <v>0.004772705596134219</v>
       </c>
       <c r="T8">
-        <v>0.004231303296668014</v>
+        <v>0.00477270559613422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N9">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O9">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P9">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q9">
-        <v>0.009358204902000001</v>
+        <v>0.017296733217</v>
       </c>
       <c r="R9">
-        <v>0.084223844118</v>
+        <v>0.155670598953</v>
       </c>
       <c r="S9">
-        <v>3.467226152414843E-05</v>
+        <v>6.969641529836578E-05</v>
       </c>
       <c r="T9">
-        <v>3.467226152414842E-05</v>
+        <v>6.96964152983658E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N10">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O10">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P10">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q10">
-        <v>0.456014616672</v>
+        <v>0.471496927959</v>
       </c>
       <c r="R10">
-        <v>4.104131550048</v>
+        <v>4.243472351631</v>
       </c>
       <c r="S10">
-        <v>0.001689539630053067</v>
+        <v>0.001899875848847355</v>
       </c>
       <c r="T10">
-        <v>0.001689539630053067</v>
+        <v>0.001899875848847356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N11">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O11">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P11">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q11">
-        <v>1.911244418982</v>
+        <v>1.606973432622</v>
       </c>
       <c r="R11">
-        <v>17.201199770838</v>
+        <v>14.462760893598</v>
       </c>
       <c r="S11">
-        <v>0.00708118352028717</v>
+        <v>0.006475227797546445</v>
       </c>
       <c r="T11">
-        <v>0.00708118352028717</v>
+        <v>0.006475227797546446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H12">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I12">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J12">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N12">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O12">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P12">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q12">
-        <v>0.02904415717377777</v>
+        <v>0.3789904222323334</v>
       </c>
       <c r="R12">
-        <v>0.261397414564</v>
+        <v>3.410913800091</v>
       </c>
       <c r="S12">
-        <v>0.0001076089510566793</v>
+        <v>0.001527125008556332</v>
       </c>
       <c r="T12">
-        <v>0.0001076089510566793</v>
+        <v>0.001527125008556332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H13">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I13">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J13">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N13">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O13">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P13">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q13">
-        <v>42.14964373233899</v>
+        <v>36.16866695319533</v>
       </c>
       <c r="R13">
-        <v>379.346793591051</v>
+        <v>325.5180025787579</v>
       </c>
       <c r="S13">
-        <v>0.1561649361113061</v>
+        <v>0.1457400308562659</v>
       </c>
       <c r="T13">
-        <v>0.1561649361113061</v>
+        <v>0.145740030856266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H14">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N14">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O14">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P14">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q14">
-        <v>0.3453837666962222</v>
+        <v>0.5281755561876667</v>
       </c>
       <c r="R14">
-        <v>3.108453900266</v>
+        <v>4.753580005688999</v>
       </c>
       <c r="S14">
-        <v>0.001279651002568621</v>
+        <v>0.002128259854197239</v>
       </c>
       <c r="T14">
-        <v>0.001279651002568621</v>
+        <v>0.002128259854197239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H15">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N15">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O15">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P15">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q15">
-        <v>16.83015574290844</v>
+        <v>14.397698631367</v>
       </c>
       <c r="R15">
-        <v>151.471401686176</v>
+        <v>129.579287682303</v>
       </c>
       <c r="S15">
-        <v>0.06235592910404838</v>
+        <v>0.058014884693152</v>
       </c>
       <c r="T15">
-        <v>0.06235592910404838</v>
+        <v>0.05801488469315202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H16">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N16">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O16">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P16">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q16">
-        <v>70.53839955610066</v>
+        <v>49.07077399561933</v>
       </c>
       <c r="R16">
-        <v>634.845596004906</v>
+        <v>441.6369659605739</v>
       </c>
       <c r="S16">
-        <v>0.2613456172968927</v>
+        <v>0.1977284959248576</v>
       </c>
       <c r="T16">
-        <v>0.2613456172968927</v>
+        <v>0.1977284959248576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H17">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I17">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J17">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N17">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O17">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P17">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q17">
-        <v>0.0008145398302222221</v>
+        <v>0.004994666133333334</v>
       </c>
       <c r="R17">
-        <v>0.007330858471999999</v>
+        <v>0.0449519952</v>
       </c>
       <c r="S17">
-        <v>3.017879851002683E-06</v>
+        <v>2.012578448994892E-05</v>
       </c>
       <c r="T17">
-        <v>3.017879851002683E-06</v>
+        <v>2.012578448994892E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H18">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I18">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J18">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N18">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O18">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P18">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q18">
-        <v>1.182081595422</v>
+        <v>0.4766622197333332</v>
       </c>
       <c r="R18">
-        <v>10.638734358798</v>
+        <v>4.2899599776</v>
       </c>
       <c r="S18">
-        <v>0.004379626504073975</v>
+        <v>0.001920689161750126</v>
       </c>
       <c r="T18">
-        <v>0.004379626504073975</v>
+        <v>0.001920689161750126</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H19">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I19">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J19">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N19">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O19">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P19">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q19">
-        <v>0.009686245429777779</v>
+        <v>0.006960757866666666</v>
       </c>
       <c r="R19">
-        <v>0.08717620886800001</v>
+        <v>0.06264682079999999</v>
       </c>
       <c r="S19">
-        <v>3.588765561828715E-05</v>
+        <v>2.804806346840972E-05</v>
       </c>
       <c r="T19">
-        <v>3.588765561828714E-05</v>
+        <v>2.804806346840973E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H20">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N20">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O20">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P20">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q20">
-        <v>0.4719996562275555</v>
+        <v>0.1897454224</v>
       </c>
       <c r="R20">
-        <v>4.247996906048</v>
+        <v>1.7077088016</v>
       </c>
       <c r="S20">
-        <v>0.001748764393535819</v>
+        <v>0.0007645707194903449</v>
       </c>
       <c r="T20">
-        <v>0.001748764393535819</v>
+        <v>0.000764570719490345</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H21">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N21">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O21">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P21">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q21">
-        <v>1.978240775065333</v>
+        <v>0.6466974325333332</v>
       </c>
       <c r="R21">
-        <v>17.804166975588</v>
+        <v>5.8202768928</v>
       </c>
       <c r="S21">
-        <v>0.007329405823988798</v>
+        <v>0.002605838470465095</v>
       </c>
       <c r="T21">
-        <v>0.007329405823988798</v>
+        <v>0.002605838470465096</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H22">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I22">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J22">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N22">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O22">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P22">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q22">
-        <v>0.007354910946666666</v>
+        <v>0.04424047056333334</v>
       </c>
       <c r="R22">
-        <v>0.06619419852</v>
+        <v>0.39816423507</v>
       </c>
       <c r="S22">
-        <v>2.725003336645777E-05</v>
+        <v>0.0001782650036104333</v>
       </c>
       <c r="T22">
-        <v>2.725003336645777E-05</v>
+        <v>0.0001782650036104333</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H23">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I23">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J23">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N23">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O23">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P23">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q23">
-        <v>10.67363994177</v>
+        <v>4.222056157073332</v>
       </c>
       <c r="R23">
-        <v>96.06275947593001</v>
+        <v>37.99850541366</v>
       </c>
       <c r="S23">
-        <v>0.03954596414068192</v>
+        <v>0.01701258703852767</v>
       </c>
       <c r="T23">
-        <v>0.03954596414068192</v>
+        <v>0.01701258703852768</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H24">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I24">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J24">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N24">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O24">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P24">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q24">
-        <v>0.08746223315333335</v>
+        <v>0.06165521283666666</v>
       </c>
       <c r="R24">
-        <v>0.78716009838</v>
+        <v>0.55489691553</v>
       </c>
       <c r="S24">
-        <v>0.0003240486239759851</v>
+        <v>0.000248436931139692</v>
       </c>
       <c r="T24">
-        <v>0.000324048623975985</v>
+        <v>0.0002484369311396921</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H25">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I25">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J25">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N25">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O25">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P25">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q25">
-        <v>4.261934542186666</v>
+        <v>1.68067825759</v>
       </c>
       <c r="R25">
-        <v>38.35741087968</v>
+        <v>15.12610431831</v>
       </c>
       <c r="S25">
-        <v>0.01579051865106275</v>
+        <v>0.006772218103520191</v>
       </c>
       <c r="T25">
-        <v>0.01579051865106275</v>
+        <v>0.006772218103520192</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H26">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N26">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O26">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P26">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q26">
-        <v>17.86258227262</v>
+        <v>5.728150383553333</v>
       </c>
       <c r="R26">
-        <v>160.76324045358</v>
+        <v>51.55335345197999</v>
       </c>
       <c r="S26">
-        <v>0.06618108179278442</v>
+        <v>0.02308132657276831</v>
       </c>
       <c r="T26">
-        <v>0.06618108179278442</v>
+        <v>0.02308132657276831</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H27">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I27">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J27">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.006825333333333333</v>
+        <v>0.1076436666666667</v>
       </c>
       <c r="N27">
-        <v>0.020476</v>
+        <v>0.322931</v>
       </c>
       <c r="O27">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="P27">
-        <v>0.0002236012763356542</v>
+        <v>0.003769387238061344</v>
       </c>
       <c r="Q27">
-        <v>0.01883967638577777</v>
+        <v>0.4002995266044445</v>
       </c>
       <c r="R27">
-        <v>0.169557087472</v>
+        <v>3.602695739440001</v>
       </c>
       <c r="S27">
-        <v>6.980122721382258E-05</v>
+        <v>0.001612989094526923</v>
       </c>
       <c r="T27">
-        <v>6.980122721382258E-05</v>
+        <v>0.001612989094526924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H28">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I28">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J28">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.905103</v>
+        <v>10.27289266666667</v>
       </c>
       <c r="N28">
-        <v>29.715309</v>
+        <v>30.818678</v>
       </c>
       <c r="O28">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465130999</v>
       </c>
       <c r="P28">
-        <v>0.3244960450824553</v>
+        <v>0.3597286465131</v>
       </c>
       <c r="Q28">
-        <v>27.340633193172</v>
+        <v>38.20228536119111</v>
       </c>
       <c r="R28">
-        <v>246.065698738548</v>
+        <v>343.82056825072</v>
       </c>
       <c r="S28">
-        <v>0.101297374254637</v>
+        <v>0.1539344055595059</v>
       </c>
       <c r="T28">
-        <v>0.101297374254637</v>
+        <v>0.153934405559506</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H29">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I29">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J29">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.08116466666666668</v>
+        <v>0.1500163333333333</v>
       </c>
       <c r="N29">
-        <v>0.243494</v>
+        <v>0.450049</v>
       </c>
       <c r="O29">
-        <v>0.002658994392463069</v>
+        <v>0.00525316230743493</v>
       </c>
       <c r="P29">
-        <v>0.002658994392463069</v>
+        <v>0.005253162307434931</v>
       </c>
       <c r="Q29">
-        <v>0.2240353663742222</v>
+        <v>0.5578727395288889</v>
       </c>
       <c r="R29">
-        <v>2.016318297368</v>
+        <v>5.02085465576</v>
       </c>
       <c r="S29">
-        <v>0.0008300537223677731</v>
+        <v>0.002247923330379391</v>
       </c>
       <c r="T29">
-        <v>0.000830053722367773</v>
+        <v>0.002247923330379392</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H30">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I30">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J30">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.955061333333333</v>
+        <v>4.089341</v>
       </c>
       <c r="N30">
-        <v>11.865184</v>
+        <v>12.268023</v>
       </c>
       <c r="O30">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671011</v>
       </c>
       <c r="P30">
-        <v>0.1295697541686552</v>
+        <v>0.1431975540671012</v>
       </c>
       <c r="Q30">
-        <v>10.91698704911644</v>
+        <v>15.20722321261333</v>
       </c>
       <c r="R30">
-        <v>98.25288344204799</v>
+        <v>136.86500891352</v>
       </c>
       <c r="S30">
-        <v>0.04044756809522428</v>
+        <v>0.06127682789947533</v>
       </c>
       <c r="T30">
-        <v>0.04044756809522428</v>
+        <v>0.06127682789947535</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H31">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I31">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J31">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.576418</v>
+        <v>13.93744466666667</v>
       </c>
       <c r="N31">
-        <v>49.729254</v>
+        <v>41.812334</v>
       </c>
       <c r="O31">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743025</v>
       </c>
       <c r="P31">
-        <v>0.5430516050800909</v>
+        <v>0.4880512498743027</v>
       </c>
       <c r="Q31">
-        <v>45.75517934489866</v>
+        <v>51.82982589601777</v>
       </c>
       <c r="R31">
-        <v>411.796614104088</v>
+        <v>466.46843306416</v>
       </c>
       <c r="S31">
-        <v>0.16952348884684</v>
+        <v>0.2088459725412465</v>
       </c>
       <c r="T31">
-        <v>0.16952348884684</v>
+        <v>0.2088459725412466</v>
       </c>
     </row>
   </sheetData>
